--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>액트 1 보스 (임시 크롤)</t>
+  </si>
+  <si>
+    <t>액트 1 앨리트 전투 (기사단장)</t>
+  </si>
+  <si>
+    <t>액트 1 앨리트 전투 ()</t>
+  </si>
+  <si>
+    <t>액트 1 앨리트 전투 (슬라임)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이벤트 전투 </t>
   </si>
 </sst>
 </file>
@@ -120,6 +132,7 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,22 +536,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -870,6 +883,108 @@
         <v>1002</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="16.5">
+      <c r="A15" s="4">
+        <v>1001006</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100100601</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="A16" s="4">
+        <v>1001006</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100100602</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5">
+      <c r="A17" s="4">
+        <v>1001006</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100100603</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5">
+      <c r="A18" s="4">
+        <v>1001007</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100100701</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F8FE0-C48E-4F0F-ABC8-7DAE2518DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="330" yWindow="780" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -176,13 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -595,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="3">
-        <v>1001</v>
+        <v>901001</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -616,10 +614,10 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <v>1002</v>
+        <v>901002</v>
       </c>
       <c r="G3" s="3">
-        <v>1002</v>
+        <v>901002</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -637,353 +635,353 @@
         <v>100</v>
       </c>
       <c r="E4" s="3">
-        <v>1001</v>
+        <v>901001</v>
       </c>
       <c r="F4" s="3">
-        <v>1002</v>
+        <v>901002</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1001002</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>100100202</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1003</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1002</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>901003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>901002</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1001002</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>100100203</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1001003</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>100100301</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>901001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>901002</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1001003</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>100100302</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>901002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>901002</v>
+      </c>
+      <c r="G8" s="3">
+        <v>901002</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1001003</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>100100303</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="4">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="E9" s="3">
+        <v>901003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G9" s="3">
+        <v>901002</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1001004</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>100100401</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1003</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1003</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>901003</v>
+      </c>
+      <c r="F10" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>901003</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1001004</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>100100402</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1003</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>901003</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1001004</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>100100403</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>50</v>
       </c>
-      <c r="E12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="E12" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G12" s="3">
+        <v>901002</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>1001005</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>100100501</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1002</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1001</v>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G13" s="3">
+        <v>901002</v>
+      </c>
+      <c r="H13" s="3">
+        <v>901001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>1001005</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>100100502</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1003</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>1002</v>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>901003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>901003</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>901002</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>1001006</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>100100601</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1001</v>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>901001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>901001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>901001</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>1001006</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>100100602</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1002</v>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>901001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>901001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>901002</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>1001006</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>100100603</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1003</v>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>901001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>901001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>901003</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>1001007</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>100100701</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>901001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>901001</v>
+      </c>
+      <c r="G18" s="3">
+        <v>901001</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F8FE0-C48E-4F0F-ABC8-7DAE2518DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="780" windowWidth="38070" windowHeight="19365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="780" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -100,13 +99,17 @@
   </si>
   <si>
     <t xml:space="preserve">이벤트 전투 </t>
+  </si>
+  <si>
+    <t>RewardID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -135,8 +138,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -177,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +202,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -533,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -550,10 +570,11 @@
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,8 +599,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5">
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="3">
         <v>1001001</v>
       </c>
@@ -598,8 +622,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5">
+      <c r="I2" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="3">
         <v>1001001</v>
       </c>
@@ -620,8 +647,11 @@
         <v>901002</v>
       </c>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+      <c r="I3" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="3">
         <v>1001002</v>
       </c>
@@ -642,8 +672,11 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+      <c r="I4" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="3">
         <v>1001002</v>
       </c>
@@ -664,8 +697,11 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
+      <c r="I5" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="3">
         <v>1001002</v>
       </c>
@@ -686,8 +722,11 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
+      <c r="I6" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="3">
         <v>1001003</v>
       </c>
@@ -710,8 +749,11 @@
         <v>901002</v>
       </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
+      <c r="I7" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="3">
         <v>1001003</v>
       </c>
@@ -734,8 +776,11 @@
         <v>901002</v>
       </c>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5">
+      <c r="I8" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="3">
         <v>1001003</v>
       </c>
@@ -758,8 +803,11 @@
         <v>901002</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
+      <c r="I9" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="3">
         <v>1001004</v>
       </c>
@@ -782,8 +830,11 @@
         <v>901003</v>
       </c>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5">
+      <c r="I10" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="3">
         <v>1001004</v>
       </c>
@@ -806,8 +857,11 @@
         <v>901003</v>
       </c>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5">
+      <c r="I11" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="3">
         <v>1001004</v>
       </c>
@@ -830,8 +884,11 @@
         <v>901002</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5">
+      <c r="I12" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="3">
         <v>1001005</v>
       </c>
@@ -856,8 +913,11 @@
       <c r="H13" s="3">
         <v>901001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5">
+      <c r="I13" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="3">
         <v>1001005</v>
       </c>
@@ -880,8 +940,11 @@
       <c r="H14" s="3">
         <v>901002</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5">
+      <c r="I14" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="3">
         <v>1001006</v>
       </c>
@@ -906,8 +969,11 @@
       <c r="H15" s="3">
         <v>901001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5">
+      <c r="I15" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="3">
         <v>1001006</v>
       </c>
@@ -932,8 +998,11 @@
       <c r="H16" s="3">
         <v>901002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5">
+      <c r="I16" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="3">
         <v>1001006</v>
       </c>
@@ -958,8 +1027,11 @@
       <c r="H17" s="3">
         <v>901003</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5">
+      <c r="I17" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="3">
         <v>1001007</v>
       </c>
@@ -982,6 +1054,7 @@
         <v>901001</v>
       </c>
       <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C3B28-C3CB-463F-AE11-EF86E19BCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="780" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -146,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +212,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -553,24 +563,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -603,288 +613,288 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A2" s="5">
         <v>1001001</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>100100101</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A3" s="5">
         <v>1001001</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>100100102</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>901002</v>
-      </c>
-      <c r="G3" s="3">
-        <v>901002</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>901002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>901002</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A4" s="5">
         <v>1001002</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>100100201</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F4" s="3">
-        <v>901002</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>901002</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="3">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A5" s="5">
         <v>1001002</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>100100202</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>901003</v>
-      </c>
-      <c r="F5" s="3">
-        <v>901002</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>901003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>901002</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A6" s="5">
         <v>1001002</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>100100203</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>50</v>
       </c>
-      <c r="E6" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>901003</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="E6" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>901003</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A7" s="5">
         <v>1001003</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>100100301</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>901001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>901002</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>901001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>901002</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A8" s="5">
         <v>1001003</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>100100302</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>901002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>901002</v>
-      </c>
-      <c r="G8" s="3">
-        <v>901002</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="D8" s="5">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>901002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>901002</v>
+      </c>
+      <c r="G8" s="5">
+        <v>901002</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="3">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A9" s="5">
         <v>1001003</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>100100303</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>50</v>
       </c>
-      <c r="E9" s="3">
-        <v>901003</v>
-      </c>
-      <c r="F9" s="3">
-        <v>901003</v>
-      </c>
-      <c r="G9" s="3">
-        <v>901002</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="E9" s="5">
+        <v>901003</v>
+      </c>
+      <c r="F9" s="5">
+        <v>901003</v>
+      </c>
+      <c r="G9" s="5">
+        <v>901002</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="3">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A10" s="5">
         <v>1001004</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>100100401</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>901003</v>
-      </c>
-      <c r="F10" s="3">
-        <v>901003</v>
-      </c>
-      <c r="G10" s="3">
-        <v>901003</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>901003</v>
+      </c>
+      <c r="F10" s="5">
+        <v>901003</v>
+      </c>
+      <c r="G10" s="5">
+        <v>901003</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A11" s="5">
         <v>1001004</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>100100402</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>901003</v>
-      </c>
-      <c r="G11" s="3">
-        <v>901003</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>901003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>901003</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="3">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="16.5">
+      <c r="A12" s="5">
         <v>1001004</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>100100403</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>50</v>
       </c>
-      <c r="E12" s="3">
-        <v>901001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>901003</v>
-      </c>
-      <c r="G12" s="3">
-        <v>901002</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="E12" s="5">
+        <v>901001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>901003</v>
+      </c>
+      <c r="G12" s="5">
+        <v>901002</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <v>1002</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C3B28-C3CB-463F-AE11-EF86E19BCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB9CD5-5C8F-42CC-9236-B8940534217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -629,7 +629,9 @@
       <c r="E2" s="5">
         <v>901001</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <v>901001</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
@@ -649,7 +651,9 @@
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>901001</v>
+      </c>
       <c r="F3" s="5">
         <v>901002</v>
       </c>

--- a/Assets/ERang/Excels/LevelGroupData.xlsx
+++ b/Assets/ERang/Excels/LevelGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB9CD5-5C8F-42CC-9236-B8940534217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDCFC3-4382-4AB5-A2B7-00DD6F98E23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -632,7 +632,9 @@
       <c r="F2" s="5">
         <v>901001</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <v>901001</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
         <v>1001</v>
